--- a/team_specific_matrix/Johnson (TN)_B.xlsx
+++ b/team_specific_matrix/Johnson (TN)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.425531914893617</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
   </sheetData>
